--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="110">
   <si>
+    <t xml:space="preserve">creationDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">issueNumber</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t xml:space="preserve">contractNo</t>
   </si>
   <si>
-    <t xml:space="preserve">creationDate</t>
-  </si>
-  <si>
     <t xml:space="preserve">effectiveDate</t>
   </si>
   <si>
@@ -244,6 +244,9 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-08-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
@@ -263,9 +266,6 @@
   </si>
   <si>
     <t xml:space="preserve">Auto_C001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-20</t>
@@ -466,27 +466,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BW1000"/>
+  <dimension ref="A1:BX1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="7.67"/>
@@ -540,10 +540,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="76" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="77" style="1" width="14.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +686,7 @@
         <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>47</v>
@@ -777,11 +777,11 @@
       <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>77</v>
@@ -793,13 +793,13 @@
         <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>81</v>
@@ -811,13 +811,13 @@
         <v>83</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>84</v>
@@ -826,13 +826,13 @@
         <v>85</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>87</v>
@@ -844,7 +844,7 @@
         <v>89</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>86</v>
@@ -862,7 +862,7 @@
         <v>93</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>34</v>
@@ -874,7 +874,7 @@
         <v>95</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>96</v>
@@ -929,13 +929,13 @@
       <c r="B3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>77</v>
@@ -947,16 +947,16 @@
         <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>82</v>
@@ -966,13 +966,13 @@
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>84</v>
@@ -981,13 +981,13 @@
         <v>85</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>87</v>
@@ -999,7 +999,7 @@
         <v>89</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>86</v>
@@ -1017,7 +1017,7 @@
         <v>93</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>34</v>
@@ -1050,7 +1050,7 @@
         <v>95</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BH3" s="1"/>
       <c r="BI3" s="1" t="s">
@@ -1098,6 +1098,7 @@
       <c r="BW3" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BX3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -1106,11 +1107,11 @@
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>74</v>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>77</v>
@@ -1122,16 +1123,16 @@
         <v>79</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>82</v>
@@ -1140,13 +1141,13 @@
         <v>83</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>84</v>
@@ -1155,13 +1156,13 @@
         <v>85</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>87</v>
@@ -1173,7 +1174,7 @@
         <v>89</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>86</v>
@@ -1191,7 +1192,7 @@
         <v>93</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>34</v>
@@ -1203,7 +1204,7 @@
         <v>95</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>96</v>
@@ -1258,13 +1259,13 @@
       <c r="B5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>77</v>
@@ -1276,16 +1277,16 @@
         <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>82</v>
@@ -1295,13 +1296,13 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>84</v>
@@ -1310,13 +1311,13 @@
         <v>85</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>87</v>
@@ -1328,7 +1329,7 @@
         <v>89</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>86</v>
@@ -1346,7 +1347,7 @@
         <v>93</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>34</v>
@@ -1379,7 +1380,7 @@
         <v>95</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BH5" s="1"/>
       <c r="BI5" s="1" t="s">
@@ -1427,6 +1428,7 @@
       <c r="BW5" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BX5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1435,11 +1437,11 @@
       <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>77</v>
@@ -1451,16 +1453,16 @@
         <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>82</v>
@@ -1469,13 +1471,13 @@
         <v>83</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>84</v>
@@ -1484,13 +1486,13 @@
         <v>85</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>87</v>
@@ -1502,7 +1504,7 @@
         <v>89</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>86</v>
@@ -1520,7 +1522,7 @@
         <v>93</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>34</v>
@@ -1532,7 +1534,7 @@
         <v>95</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>96</v>
@@ -1587,13 +1589,13 @@
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>77</v>
@@ -1605,16 +1607,16 @@
         <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>82</v>
@@ -1624,13 +1626,13 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>84</v>
@@ -1639,13 +1641,13 @@
         <v>85</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>87</v>
@@ -1657,7 +1659,7 @@
         <v>89</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>86</v>
@@ -1675,7 +1677,7 @@
         <v>93</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>34</v>
@@ -1708,7 +1710,7 @@
         <v>95</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BH7" s="1"/>
       <c r="BI7" s="1" t="s">
@@ -1756,6 +1758,7 @@
       <c r="BW7" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BX7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -1764,11 +1767,11 @@
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>74</v>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>77</v>
@@ -1780,16 +1783,16 @@
         <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>82</v>
@@ -1798,13 +1801,13 @@
         <v>83</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>84</v>
@@ -1813,13 +1816,13 @@
         <v>85</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>87</v>
@@ -1831,7 +1834,7 @@
         <v>89</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>86</v>
@@ -1849,7 +1852,7 @@
         <v>93</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>34</v>
@@ -1861,7 +1864,7 @@
         <v>95</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>96</v>
@@ -1916,13 +1919,13 @@
       <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>77</v>
@@ -1934,16 +1937,16 @@
         <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>82</v>
@@ -1953,13 +1956,13 @@
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>84</v>
@@ -1968,13 +1971,13 @@
         <v>85</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>87</v>
@@ -1986,7 +1989,7 @@
         <v>89</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>86</v>
@@ -2004,7 +2007,7 @@
         <v>93</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>34</v>
@@ -2037,7 +2040,7 @@
         <v>95</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BH9" s="1"/>
       <c r="BI9" s="1" t="s">
@@ -2085,6 +2088,7 @@
       <c r="BW9" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BX9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -2093,11 +2097,11 @@
       <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>77</v>
@@ -2109,16 +2113,16 @@
         <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>82</v>
@@ -2127,13 +2131,13 @@
         <v>83</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>84</v>
@@ -2142,13 +2146,13 @@
         <v>85</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>87</v>
@@ -2160,7 +2164,7 @@
         <v>89</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>86</v>
@@ -2178,7 +2182,7 @@
         <v>93</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>34</v>
@@ -2190,7 +2194,7 @@
         <v>95</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BI10" s="1" t="s">
         <v>96</v>
@@ -2245,13 +2249,13 @@
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>77</v>
@@ -2263,16 +2267,16 @@
         <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>82</v>
@@ -2282,13 +2286,13 @@
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>84</v>
@@ -2297,13 +2301,13 @@
         <v>85</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>87</v>
@@ -2315,7 +2319,7 @@
         <v>89</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>86</v>
@@ -2333,7 +2337,7 @@
         <v>93</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>34</v>
@@ -2366,7 +2370,7 @@
         <v>95</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BH11" s="1"/>
       <c r="BI11" s="1" t="s">
@@ -2414,6 +2418,7 @@
       <c r="BW11" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BX11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2422,11 +2427,11 @@
       <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>74</v>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>77</v>
@@ -2438,16 +2443,16 @@
         <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>82</v>
@@ -2456,13 +2461,13 @@
         <v>83</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>84</v>
@@ -2471,13 +2476,13 @@
         <v>85</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>87</v>
@@ -2489,7 +2494,7 @@
         <v>89</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>86</v>
@@ -2507,7 +2512,7 @@
         <v>93</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>34</v>
@@ -2519,7 +2524,7 @@
         <v>95</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BI12" s="1" t="s">
         <v>96</v>
@@ -2574,13 +2579,13 @@
       <c r="B13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>77</v>
@@ -2592,16 +2597,16 @@
         <v>79</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>82</v>
@@ -2611,13 +2616,13 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>84</v>
@@ -2626,13 +2631,13 @@
         <v>85</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>87</v>
@@ -2644,7 +2649,7 @@
         <v>89</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>86</v>
@@ -2662,7 +2667,7 @@
         <v>93</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>34</v>
@@ -2695,7 +2700,7 @@
         <v>95</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BH13" s="1"/>
       <c r="BI13" s="1" t="s">
@@ -2743,6 +2748,7 @@
       <c r="BW13" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BX13" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -244,7 +244,7 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -466,10 +466,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BX1000"/>
+  <dimension ref="A1:BW1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1098,7 +1098,6 @@
       <c r="BW3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -1428,7 +1427,6 @@
       <c r="BW5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1758,7 +1756,6 @@
       <c r="BW7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -2088,7 +2085,6 @@
       <c r="BW9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -2418,7 +2414,6 @@
       <c r="BW11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2748,7 +2743,6 @@
       <c r="BW13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX13" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DC4ED1-D5A7-4CBC-A344-C4A61FBDC254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976967F-DB37-499A-91C1-BE634EF32F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -354,14 +354,14 @@
     <t>Auto_C012</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -373,6 +373,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -713,10 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BX1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,6 +3978,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976967F-DB37-499A-91C1-BE634EF32F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA539195-1F2C-437A-B182-50403F20AEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>Auto_C012</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
   <dimension ref="A1:BX1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA539195-1F2C-437A-B182-50403F20AEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D8A0B-698A-4361-82ED-77DAB0A6DA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="110">
   <si>
     <t>creationDate</t>
   </si>
@@ -267,9 +267,6 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>Auto_C001</t>
-  </si>
-  <si>
     <t>2023-08-20</t>
   </si>
   <si>
@@ -321,40 +318,43 @@
     <t>บ้านนา</t>
   </si>
   <si>
-    <t>Auto_C002</t>
-  </si>
-  <si>
-    <t>Auto_C003</t>
-  </si>
-  <si>
-    <t>Auto_C004</t>
-  </si>
-  <si>
-    <t>Auto_C005</t>
-  </si>
-  <si>
-    <t>Auto_C006</t>
-  </si>
-  <si>
-    <t>Auto_C007</t>
-  </si>
-  <si>
-    <t>Auto_C008</t>
-  </si>
-  <si>
-    <t>Auto_C009</t>
-  </si>
-  <si>
-    <t>Auto_C010</t>
-  </si>
-  <si>
-    <t>Auto_C011</t>
-  </si>
-  <si>
-    <t>Auto_C012</t>
-  </si>
-  <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC001</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC002</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC003</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC004</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC005</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC006</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC007</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC008</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC009</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC010</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC011</t>
+  </si>
+  <si>
+    <t>Auto_SSEsC012</t>
   </si>
 </sst>
 </file>
@@ -721,8 +721,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,11 +1024,8 @@
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -1055,64 +1052,64 @@
         <v>78</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>78</v>
@@ -1121,31 +1118,31 @@
         <v>34</v>
       </c>
       <c r="BE2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK2" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>65</v>
@@ -1176,11 +1173,9 @@
       </c>
     </row>
     <row r="3" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>
@@ -1209,13 +1204,13 @@
         <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
@@ -1228,46 +1223,46 @@
         <v>74</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>78</v>
@@ -1297,32 +1292,32 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF3" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="BH3" s="1"/>
       <c r="BI3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK3" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO3" s="1" t="s">
         <v>65</v>
@@ -1353,11 +1348,8 @@
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>75</v>
@@ -1384,64 +1376,64 @@
         <v>78</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>78</v>
@@ -1450,31 +1442,31 @@
         <v>34</v>
       </c>
       <c r="BE4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BG4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="BK4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK4" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM4" s="1" t="s">
+      <c r="BN4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO4" s="1" t="s">
         <v>65</v>
@@ -1505,11 +1497,9 @@
       </c>
     </row>
     <row r="5" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>75</v>
@@ -1538,13 +1528,13 @@
         <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
@@ -1557,46 +1547,46 @@
         <v>74</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>78</v>
@@ -1626,32 +1616,32 @@
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF5" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>74</v>
       </c>
       <c r="BH5" s="1"/>
       <c r="BI5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ5" s="1" t="s">
+      <c r="BK5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK5" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM5" s="1" t="s">
+      <c r="BN5" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO5" s="1" t="s">
         <v>65</v>
@@ -1682,11 +1672,8 @@
       </c>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>75</v>
@@ -1713,64 +1700,64 @@
         <v>78</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>78</v>
@@ -1779,31 +1766,31 @@
         <v>34</v>
       </c>
       <c r="BE6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BG6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BG6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BJ6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ6" s="1" t="s">
+      <c r="BK6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK6" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM6" s="1" t="s">
+      <c r="BN6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO6" s="1" t="s">
         <v>65</v>
@@ -1834,11 +1821,9 @@
       </c>
     </row>
     <row r="7" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>75</v>
@@ -1867,13 +1852,13 @@
         <v>78</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
@@ -1886,46 +1871,46 @@
         <v>74</v>
       </c>
       <c r="T7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>78</v>
@@ -1955,32 +1940,32 @@
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF7" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="BH7" s="1"/>
       <c r="BI7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ7" s="1" t="s">
+      <c r="BK7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK7" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM7" s="1" t="s">
+      <c r="BN7" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO7" s="1" t="s">
         <v>65</v>
@@ -2011,11 +1996,8 @@
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>75</v>
@@ -2042,64 +2024,64 @@
         <v>78</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH8" s="1" t="s">
         <v>78</v>
@@ -2108,31 +2090,31 @@
         <v>34</v>
       </c>
       <c r="BE8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BG8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BG8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI8" s="1" t="s">
+      <c r="BJ8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ8" s="1" t="s">
+      <c r="BK8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK8" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM8" s="1" t="s">
+      <c r="BN8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO8" s="1" t="s">
         <v>65</v>
@@ -2163,11 +2145,9 @@
       </c>
     </row>
     <row r="9" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>75</v>
@@ -2196,13 +2176,13 @@
         <v>78</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
@@ -2215,46 +2195,46 @@
         <v>74</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>78</v>
@@ -2284,32 +2264,32 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF9" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="BH9" s="1"/>
       <c r="BI9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ9" s="1" t="s">
+      <c r="BK9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK9" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM9" s="1" t="s">
+      <c r="BN9" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO9" s="1" t="s">
         <v>65</v>
@@ -2340,11 +2320,8 @@
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>75</v>
@@ -2371,64 +2348,64 @@
         <v>78</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>78</v>
@@ -2437,31 +2414,31 @@
         <v>34</v>
       </c>
       <c r="BE10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="BG10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BG10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI10" s="1" t="s">
+      <c r="BJ10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ10" s="1" t="s">
+      <c r="BK10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK10" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM10" s="1" t="s">
+      <c r="BN10" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN10" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO10" s="1" t="s">
         <v>65</v>
@@ -2492,11 +2469,9 @@
       </c>
     </row>
     <row r="11" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>75</v>
@@ -2525,13 +2500,13 @@
         <v>78</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
@@ -2544,46 +2519,46 @@
         <v>74</v>
       </c>
       <c r="T11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>78</v>
@@ -2613,32 +2588,32 @@
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF11" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="BF11" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>74</v>
       </c>
       <c r="BH11" s="1"/>
       <c r="BI11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ11" s="1" t="s">
+      <c r="BK11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK11" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM11" s="1" t="s">
+      <c r="BN11" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN11" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO11" s="1" t="s">
         <v>65</v>
@@ -2669,11 +2644,8 @@
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>75</v>
@@ -2700,64 +2672,64 @@
         <v>78</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH12" s="1" t="s">
         <v>78</v>
@@ -2766,31 +2738,31 @@
         <v>34</v>
       </c>
       <c r="BE12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BG12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BG12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI12" s="1" t="s">
+      <c r="BJ12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ12" s="1" t="s">
+      <c r="BK12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK12" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM12" s="1" t="s">
+      <c r="BN12" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN12" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO12" s="1" t="s">
         <v>65</v>
@@ -2821,11 +2793,9 @@
       </c>
     </row>
     <row r="13" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>75</v>
@@ -2854,13 +2824,13 @@
         <v>78</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
@@ -2873,46 +2843,46 @@
         <v>74</v>
       </c>
       <c r="T13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>78</v>
@@ -2942,32 +2912,32 @@
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="BG13" s="1" t="s">
         <v>74</v>
       </c>
       <c r="BH13" s="1"/>
       <c r="BI13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ13" s="1" t="s">
+      <c r="BK13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK13" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM13" s="1" t="s">
+      <c r="BN13" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN13" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO13" s="1" t="s">
         <v>65</v>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D8A0B-698A-4361-82ED-77DAB0A6DA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01489650-A10A-4F6F-91C9-B8F7D72E6773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -318,9 +318,6 @@
     <t>บ้านนา</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t>Auto_SSEsC001</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>Auto_SSEsC012</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -721,8 +721,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -1052,7 +1052,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>80</v>
@@ -1175,7 +1175,7 @@
     <row r="3" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>
@@ -1204,7 +1204,7 @@
         <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>80</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>75</v>
@@ -1376,7 +1376,7 @@
         <v>78</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>80</v>
@@ -1499,7 +1499,7 @@
     <row r="5" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>75</v>
@@ -1528,7 +1528,7 @@
         <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>80</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>75</v>
@@ -1700,7 +1700,7 @@
         <v>78</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>80</v>
@@ -1823,7 +1823,7 @@
     <row r="7" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>75</v>
@@ -1852,7 +1852,7 @@
         <v>78</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>80</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>75</v>
@@ -2024,7 +2024,7 @@
         <v>78</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>80</v>
@@ -2147,7 +2147,7 @@
     <row r="9" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>75</v>
@@ -2176,7 +2176,7 @@
         <v>78</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>80</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>75</v>
@@ -2348,7 +2348,7 @@
         <v>78</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>80</v>
@@ -2471,7 +2471,7 @@
     <row r="11" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>75</v>
@@ -2500,7 +2500,7 @@
         <v>78</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>80</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>75</v>
@@ -2672,7 +2672,7 @@
         <v>78</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>80</v>
@@ -2795,7 +2795,7 @@
     <row r="13" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>75</v>
@@ -2824,7 +2824,7 @@
         <v>78</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>80</v>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01489650-A10A-4F6F-91C9-B8F7D72E6773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A99D96-EDE6-4955-A9FE-46E6845C1464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>Auto_SSEsC012</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -722,81 +722,81 @@
   <dimension ref="A1:BX1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="10.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="19.109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="19.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.6640625" style="1" customWidth="1"/>
-    <col min="30" max="33" width="7.44140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.77734375" style="1" customWidth="1"/>
-    <col min="35" max="38" width="6.5546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="4.44140625" style="1" customWidth="1"/>
-    <col min="40" max="41" width="7.109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" style="1" customWidth="1"/>
+    <col min="30" max="33" width="7.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" style="1" customWidth="1"/>
+    <col min="35" max="38" width="6.5703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="1" customWidth="1"/>
+    <col min="40" max="41" width="7.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" style="1" customWidth="1"/>
     <col min="43" max="43" width="12" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.77734375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="17.109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="19.5546875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="12.109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="16.6640625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="16.42578125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="17.140625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="19.5703125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="12.140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="16.7109375" style="1" customWidth="1"/>
     <col min="50" max="50" width="19" style="1" customWidth="1"/>
-    <col min="51" max="51" width="19.77734375" style="1" customWidth="1"/>
-    <col min="52" max="52" width="21.109375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="12.77734375" style="1" customWidth="1"/>
-    <col min="54" max="54" width="20.33203125" style="1" customWidth="1"/>
-    <col min="55" max="55" width="21.6640625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="24.33203125" style="1" customWidth="1"/>
-    <col min="57" max="57" width="10.109375" style="1" customWidth="1"/>
-    <col min="58" max="58" width="11.44140625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="7.6640625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="10.6640625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="23.33203125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="8.33203125" style="1" customWidth="1"/>
-    <col min="63" max="63" width="9.33203125" style="1" customWidth="1"/>
-    <col min="64" max="64" width="6.6640625" style="1" customWidth="1"/>
-    <col min="65" max="65" width="7.77734375" style="1" customWidth="1"/>
-    <col min="66" max="66" width="8.6640625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="11.77734375" style="1" customWidth="1"/>
-    <col min="68" max="68" width="7.44140625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="19.7109375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="21.140625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="12.7109375" style="1" customWidth="1"/>
+    <col min="54" max="54" width="20.28515625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="21.7109375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="24.28515625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="10.140625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="11.42578125" style="1" customWidth="1"/>
+    <col min="59" max="59" width="7.7109375" style="1" customWidth="1"/>
+    <col min="60" max="60" width="10.7109375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="23.28515625" style="1" customWidth="1"/>
+    <col min="62" max="62" width="8.28515625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="9.28515625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="6.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="7.7109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="8.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="11.7109375" style="1" customWidth="1"/>
+    <col min="68" max="68" width="7.42578125" style="1" customWidth="1"/>
     <col min="69" max="69" width="7" style="1" customWidth="1"/>
-    <col min="70" max="70" width="10.33203125" style="1" customWidth="1"/>
-    <col min="71" max="71" width="13.6640625" style="1" customWidth="1"/>
-    <col min="72" max="72" width="4.6640625" style="1" customWidth="1"/>
-    <col min="73" max="73" width="7.6640625" style="1" customWidth="1"/>
+    <col min="70" max="70" width="10.28515625" style="1" customWidth="1"/>
+    <col min="71" max="71" width="13.7109375" style="1" customWidth="1"/>
+    <col min="72" max="72" width="4.7109375" style="1" customWidth="1"/>
+    <col min="73" max="73" width="7.7109375" style="1" customWidth="1"/>
     <col min="74" max="74" width="12" style="1" customWidth="1"/>
-    <col min="75" max="75" width="9.77734375" style="1" customWidth="1"/>
-    <col min="77" max="16384" width="14.5546875" style="1"/>
+    <col min="75" max="75" width="9.7109375" style="1" customWidth="1"/>
+    <col min="77" max="16384" width="14.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>109</v>
@@ -1347,7 +1347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>109</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>109</v>
@@ -1671,7 +1671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>109</v>
@@ -1995,7 +1995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>109</v>
@@ -2319,7 +2319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>109</v>
@@ -2643,7 +2643,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>109</v>
@@ -2967,986 +2967,986 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A99D96-EDE6-4955-A9FE-46E6845C1464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA40AE2-E9D6-424D-8AFE-DE5C6DD1A3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>Auto_SSEsC012</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA40AE2-E9D6-424D-8AFE-DE5C6DD1A3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B9DCC-957B-4AD3-8F59-F3BBE405C809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>Auto_SSEsC012</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -422,9 +422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -462,7 +462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -568,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -710,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,7 +722,7 @@
   <dimension ref="A1:BX1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7271B221-9DC1-42E2-8795-373B9E1A4501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E6EADA-6357-4853-9675-BC2D9614CF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
     <t>Auto_SSa5aasfEsC012</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -422,9 +422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -462,7 +462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -568,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -710,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E6EADA-6357-4853-9675-BC2D9614CF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FF7A8-D8B5-4D16-A1F8-8384ADC937A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8505" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>Auto_SSa5aasfEsC012</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/test/Auto_Type1_Many_Record.xlsx
+++ b/Data Files/test/Auto_Type1_Many_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FF7A8-D8B5-4D16-A1F8-8384ADC937A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A7EC29-D7A8-404F-82F9-D4910DA68171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>Auto_SSa5aasfEsC012</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
